--- a/biology/Zoologie/Althepus_pum/Althepus_pum.xlsx
+++ b/biology/Zoologie/Althepus_pum/Althepus_pum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Althepus pum est une espèce d'araignées aranéomorphes de la famille des Psilodercidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Althepus pum est une espèce d'araignées aranéomorphes de la famille des Psilodercidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Chiang Rai en Thaïlande[1],[2]. Elle se rencontre dans la grotte Tham Pum dans le district de Mae Sai.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Chiang Rai en Thaïlande,. Elle se rencontre dans la grotte Tham Pum dans le district de Mae Sai.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 1,6 mm de long sur 1,5 mm et l'abdomen 2,4 mm de long et la carapace de la femelle paratype mesure 1,4 mm de long sur 1,4 mm et l'abdomen 1,9 mm de long[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 1,6 mm de long sur 1,5 mm et l'abdomen 2,4 mm de long et la carapace de la femelle paratype mesure 1,4 mm de long sur 1,4 mm et l'abdomen 1,9 mm de long.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la grotte Tham Pum.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Deeleman-Reinhold, 1995 : The Ochyroceratidae of the Indo-Pacific region (Araneae). The Raffles Bulletin of Zoology Supplement, no 2, p. 1-103 (texte intégral).</t>
         </is>
